--- a/biology/Zoologie/Chilocorinae/Chilocorinae.xlsx
+++ b/biology/Zoologie/Chilocorinae/Chilocorinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chilocorinae sont une sous-famille d'insectes coléoptères de la famille des coccinelles.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des tribus, genres et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon ITIS      (29 août 2014)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (29 août 2014) :
 genre Arawana Leng, 1908
 genre Axion Mulsant, 1850
 genre Brumoides Chapin, 1965
@@ -526,7 +540,7 @@
 genre Orcus Mulsant, 1850
 genre Platynaspis Redtenbacher, 1844
 genre Telsimia Casey, 1899
-Selon NCBI  (29 août 2014)[2] :
+Selon NCBI  (29 août 2014) :
 tribu Chilocorini
 genre Axion
 genre Brumoides
